--- a/Segundos parciales/2do parcial-RodaRocio.xlsx
+++ b/Segundos parciales/2do parcial-RodaRocio.xlsx
@@ -1,24 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cristina\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Repositorio\2020_Economia_HernanRRD\Segundos parciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCB0AF6-F5E3-44E9-A163-F00E2E32C9E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Práctica" sheetId="1" r:id="rId1"/>
     <sheet name="Teoría" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -206,10 +213,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00;[Red]\-&quot;$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;[Red]\-#,##0.00\ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -284,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -304,7 +311,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -321,8 +328,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,11 +612,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,11 +965,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1035,12 +1045,108 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
         <v>50</v>
       </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A17:N22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Segundos parciales/2do parcial-RodaRocio.xlsx
+++ b/Segundos parciales/2do parcial-RodaRocio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Repositorio\2020_Economia_HernanRRD\Segundos parciales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BCB0AF6-F5E3-44E9-A163-F00E2E32C9E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0C248-E7C1-485E-8AB8-EF1C92D17DBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -332,6 +332,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,121 +969,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:N22"/>
+  <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="19" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
       <c r="B19" s="20"/>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -1143,9 +1139,42 @@
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
     </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A17:N22"/>
+  <mergeCells count="2">
+    <mergeCell ref="A19:N24"/>
+    <mergeCell ref="A6:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
